--- a/medicine/Psychotrope/Montepulciano_d'Abruzzo_rosso/Montepulciano_d'Abruzzo_rosso.xlsx
+++ b/medicine/Psychotrope/Montepulciano_d'Abruzzo_rosso/Montepulciano_d'Abruzzo_rosso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_rosso</t>
+          <t>Montepulciano_d'Abruzzo_rosso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Montepulciano d'Abruzzo rosso (Montepulciano d'Abruzzo rosso  D.O.C) est un vin rouge italien, produit dans les Abruzzes selon une dénomination d'origine contrôlée (DOC). 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_rosso</t>
+          <t>Montepulciano_d'Abruzzo_rosso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Zone de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Provinces de Chieti, L'Aquila, Pescara et Teramo.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_rosso</t>
+          <t>Montepulciano_d'Abruzzo_rosso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Couleur : rouge rubis intense, avec pointes violacées ; tendance au grenat lors du vieillissement
 Arôme : parfum de fruits rouges, épices, intense ;
-Saveur : plein, sec, équilibré et tanné[1].
+Saveur : plein, sec, équilibré et tanné.
 Le Montepulciano « jeune » se consomme avec des grillades de viande porcine et ovine. Les vins plus âgés sont préférables avec les viandes rouges, pièces nobles de bovin ainsi qu'avec les fromages pecorini vieillis selon un âge allant de pair avec celui du vin.
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Montepulciano_d%27Abruzzo_rosso</t>
+          <t>Montepulciano_d'Abruzzo_rosso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Saison, volume en  hl
-2007, 845.491 [2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saison, volume en  hl
+2007, 845.491 </t>
         </is>
       </c>
     </row>
